--- a/sources/tables/eco.xlsx
+++ b/sources/tables/eco.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>12.45</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.75</v>
+        <v>3.57</v>
       </c>
       <c r="D6" t="n">
-        <v>3.82</v>
+        <v>3.71</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -711,14 +711,14 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="n">
         <v>4.25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -766,11 +766,11 @@
         <v>5.25</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -941,18 +941,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>12.75</v>
       </c>
       <c r="D17" t="n">
-        <v>8.5</v>
+        <v>13.25</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -967,18 +967,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13.25</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>13.75</v>
+        <v>12</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -997,14 +997,14 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
         <v>25</v>
       </c>
-      <c r="D19" t="n">
-        <v>17.5</v>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aug/23</t>
+          <t>Sep/23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
